--- a/outputs/documentation/V Mobile Project documentation.xlsx
+++ b/outputs/documentation/V Mobile Project documentation.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t xml:space="preserve">Artifacts </t>
   </si>
@@ -285,7 +285,7 @@
     <t>Recording of Presentation</t>
   </si>
   <si>
-    <t>https://app.screencastify.com/watch/xBc0xQ6e9xPDPTJ2U0mF</t>
+    <t>https://docs.google.com/presentation/d/1UuOHkRJCzrehzttdSnkLn5FVnPHb17-UGLI59bjFVyU/edit?usp=sharing</t>
   </si>
   <si>
     <t>MP4</t>
@@ -299,12 +299,64 @@
   <si>
     <t>The following steps can be used to run the project.</t>
   </si>
+  <si>
+    <t>Prerequisites Installation - Install PostgreSQL from postgresql.org and Install Python from python.org (version 3.8+).</t>
+  </si>
+  <si>
+    <t>Database Setup - Windows: Open Services (services.msc), find "PostgreSQL", and start it / run: net start "PostgreSQL" in Command Prompt.</t>
+  </si>
+  <si>
+    <t>Open pgAdmin and connect to PostgreSQL server</t>
+  </si>
+  <si>
+    <t>Project Setup -  Download/extract the project to a folder then  Open Command Prompt/Terminal in the project folder</t>
+  </si>
+  <si>
+    <t>Python Package Installation (Install required packages) - pip install pandas sqlalchemy psycopg2-binary</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Database Configuration - Make sure PostgreSQL is running (repeat step 2.1 if needed), verify connection by running: python </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>simple_test.py</t>
+    </r>
+  </si>
+  <si>
+    <t>Run the Project ( Execute the complete pipeline) - python scripts/python/run_complete_pipeline.py</t>
+  </si>
+  <si>
+    <t>If "ModuleNotFoundError": Run step 5 again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If database connection fails: Ensure PostgreSQL service is running (step 2) </t>
+  </si>
+  <si>
+    <t>If permission errors: Run Command Prompt as Administrator</t>
+  </si>
+  <si>
+    <t>After successful run, check data/processed/ folder for generated CSV files ready for Power BI.</t>
+  </si>
+  <si>
+    <t>Note: Default database credentials (can be modified in scripts/config/database_config.py)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -359,7 +411,7 @@
     <font>
       <u/>
       <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF467886"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -367,8 +419,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF0F1115"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +442,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBE9F7"/>
         <bgColor rgb="FFDBE9F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -432,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -484,6 +553,21 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8290,7 +8374,9 @@
       <c r="A7" s="23">
         <v>1.0</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -8320,7 +8406,9 @@
       <c r="A8" s="23">
         <v>2.0</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -8350,7 +8438,9 @@
       <c r="A9" s="23">
         <v>3.0</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -8377,8 +8467,12 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -8405,8 +8499,12 @@
       <c r="Z10" s="22"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -8433,8 +8531,12 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
@@ -8461,8 +8563,12 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -8518,7 +8624,9 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="23"/>
-      <c r="B15" s="22"/>
+      <c r="B15" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -8546,7 +8654,9 @@
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="23"/>
-      <c r="B16" s="22"/>
+      <c r="B16" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -8574,7 +8684,9 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -8630,7 +8742,9 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="23"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -8658,7 +8772,9 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -36128,9 +36244,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B12"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>